--- a/导入用户数据模板.xlsx
+++ b/导入用户数据模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csueducn-my.sharepoint.com/personal/yinaoxiong_csu_edu_cn/Documents/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\CollectData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F084A373-0585-442E-A54D-FD490118EA35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B410F5-66BC-4094-9022-EF7E9745D144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1209" yWindow="-103" windowWidth="20837" windowHeight="13920" xr2:uid="{6B78D60D-7BCA-4B5D-B209-B8C786ABDD60}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{6B78D60D-7BCA-4B5D-B209-B8C786ABDD60}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>iemi</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,48 @@
   <si>
     <t>test4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -408,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090C530F-D302-479E-BCA5-A130A408BF29}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -435,7 +477,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>4</v>
+        <v>888</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -447,12 +489,251 @@
         <v>4</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
